--- a/history_konsultasi.xlsx
+++ b/history_konsultasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,132 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Radit</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['batuk', 'demam', 'pilek', 'meler', 'meler']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['wajah pucat', 'meler']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['cuaca dingin']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Flu</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>paracetamol, antihistamin</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024-12-17 15:04:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Radit</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['batuk', 'demam', 'pilek', 'meler', 'meler']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['wajah pucat', 'meler']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['cuaca dingin']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Flu</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>paracetamol, antihistamin</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2024-12-17 15:04:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Raditya</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>['batuk', 'demam', 'pilek', 'meler', 'meler']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['wajah pucat', 'meler']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['cuaca dingin']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Flu</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>paracetamol, antihistamin</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2024-12-17 15:05:11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
